--- a/Database.xlsx
+++ b/Database.xlsx
@@ -2,6 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="620" windowWidth="25600" windowHeight="20980" tabRatio="600" firstSheet="0" activeTab="9" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
     <sheet name="職員情報" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="行事" sheetId="2" state="visible" r:id="rId2"/>
@@ -15,16 +18,16 @@
     <sheet name="タスク" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Arial"/>
       <color rgb="FF000000"/>
@@ -33,8 +36,24 @@
     </font>
     <font>
       <name val="Arial"/>
+      <family val="2"/>
       <color theme="1"/>
+      <sz val="10"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="6"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="MS Gothic"/>
+      <charset val="128"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -42,25 +61,32 @@
       <patternFill/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -133,7 +159,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -323,6 +349,8 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -338,9 +366,9 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>id</t>
@@ -361,37 +389,37 @@
           <t>display_order</t>
         </is>
       </c>
-      <c r="E1" s="0" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="F1" s="0" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>grade</t>
         </is>
       </c>
-      <c r="G1" s="0" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>dept1</t>
         </is>
       </c>
-      <c r="H1" s="0" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>dept2</t>
         </is>
       </c>
-      <c r="I1" s="0" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>dept3</t>
         </is>
       </c>
-      <c r="J1" s="0" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>subject</t>
         </is>
       </c>
-      <c r="K1" s="0" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>role_type</t>
         </is>
@@ -402,7 +430,7 @@
         </is>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="n">
         <v>35</v>
       </c>
@@ -433,15 +461,15 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>id</t>
@@ -472,8 +500,13 @@
           <t>check</t>
         </is>
       </c>
-    </row>
-    <row r="2">
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>detail</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>d2dd51e3-6ff6-4d53-af9c-2ec087a30a5e</t>
@@ -489,7 +522,7 @@
           <t>作問</t>
         </is>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="4" t="n">
         <v>46035</v>
       </c>
       <c r="F2" s="1" t="b">
@@ -510,12 +543,12 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D2" sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>id</t>
@@ -542,13 +575,13 @@
         </is>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>a1761442-3013-44ef-ba41-55a774a7ebee</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="4" t="n">
         <v>46002</v>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -573,15 +606,15 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>id</t>
@@ -617,14 +650,19 @@
           <t>reporter</t>
         </is>
       </c>
-    </row>
-    <row r="2">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> As</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>5fe52758-2207-4778-afd9-8070c1129b48</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="4" t="n">
         <v>46000</v>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -657,14 +695,19 @@
           <t>伊藤大貴</t>
         </is>
       </c>
-    </row>
-    <row r="3">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>教務</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>b973102c-fc45-4c5a-8c3f-5be54a999599</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="4" t="n">
         <v>46000</v>
       </c>
       <c r="C3" s="1" t="inlineStr">
@@ -692,14 +735,19 @@
           <t>伊藤大貴</t>
         </is>
       </c>
-    </row>
-    <row r="4">
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>DX</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>a0c77f74-3198-4e88-8215-94837f221a18</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="4" t="n">
         <v>46002</v>
       </c>
       <c r="C4" s="1" t="inlineStr">
@@ -745,9 +793,9 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>id</t>
@@ -784,13 +832,13 @@
         </is>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>8d879a99-9b44-43b1-a325-7bc44f9773cf</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="4" t="n">
         <v>46000</v>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -819,13 +867,13 @@
         </is>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>d4cc4b81-f581-445b-aa6d-039c2fe15a79</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="4" t="n">
         <v>46000</v>
       </c>
       <c r="C3" s="1" t="inlineStr">
@@ -871,9 +919,9 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>id</t>
@@ -922,9 +970,9 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>id</t>
@@ -951,13 +999,13 @@
         </is>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>05298e0f-76a4-483e-a9f9-95caa7dde6b0</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="4" t="n">
         <v>46002</v>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -993,9 +1041,9 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>day_of_week</t>
@@ -1017,7 +1065,7 @@
         </is>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>月</t>
@@ -1056,9 +1104,9 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>id</t>
@@ -1102,9 +1150,9 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>day_of_week</t>
@@ -1131,7 +1179,7 @@
         </is>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>月</t>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -540,7 +540,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="A1:E2"/>
@@ -572,6 +572,16 @@
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>note</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>end_date</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>display_order</t>
         </is>
       </c>
     </row>
@@ -652,7 +662,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> As</t>
+          <t>display_order</t>
         </is>
       </c>
     </row>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -16,6 +16,7 @@
     <sheet name="特別教室等予約" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="特別教室固定" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="タスク" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="イベント" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -534,13 +535,49 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="A1:E2"/>
@@ -582,6 +619,11 @@
       <c r="G1" t="inlineStr">
         <is>
           <t>display_order</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>schedule_type</t>
         </is>
       </c>
     </row>
